--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D4DA36-BC81-43B9-8282-F050D628F0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD0F555-03B2-451A-A52E-EDE10DC70178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7860" yWindow="1305" windowWidth="18690" windowHeight="14445" activeTab="1" xr2:uid="{B6D03F4E-F23F-4259-AC13-23185DAFFCB2}"/>
+    <workbookView xWindow="7455" yWindow="1185" windowWidth="18690" windowHeight="14445" activeTab="1" xr2:uid="{B6D03F4E-F23F-4259-AC13-23185DAFFCB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>Price</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>FCF</t>
+  </si>
+  <si>
+    <t>Net</t>
   </si>
 </sst>
 </file>
@@ -715,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846AD38C-5960-4334-88E2-2838F09F8416}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -785,6 +788,21 @@
       <c r="J10" s="3">
         <f>+J7-J8+J9</f>
         <v>120027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="2">
+        <f>+J8-J9</f>
+        <v>-24825</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J12" s="6">
+        <f>+Main!M15/Main!J5</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +815,10 @@
   <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="S14" sqref="S14"/>
+      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -988,47 +1006,47 @@
         <v>24</v>
       </c>
       <c r="C5" s="3">
-        <f>+C3-C4</f>
+        <f t="shared" ref="C5:M5" si="1">+C3-C4</f>
         <v>9244</v>
       </c>
       <c r="D5" s="3">
-        <f>+D3-D4</f>
+        <f t="shared" si="1"/>
         <v>5587</v>
       </c>
       <c r="E5" s="3">
-        <f>+E3-E4</f>
+        <f t="shared" si="1"/>
         <v>6535</v>
       </c>
       <c r="F5" s="3">
-        <f>+F3-F4</f>
+        <f t="shared" si="1"/>
         <v>5500</v>
       </c>
       <c r="G5" s="3">
-        <f>+G3-G4</f>
+        <f t="shared" si="1"/>
         <v>4008</v>
       </c>
       <c r="H5" s="3">
-        <f>+H3-H4</f>
+        <f t="shared" si="1"/>
         <v>4638</v>
       </c>
       <c r="I5" s="3">
-        <f>+I3-I4</f>
+        <f t="shared" si="1"/>
         <v>6018</v>
       </c>
       <c r="J5" s="3">
-        <f>+J3-J4</f>
+        <f t="shared" si="1"/>
         <v>7047</v>
       </c>
       <c r="K5" s="3">
-        <f>+K3-K4</f>
+        <f t="shared" si="1"/>
         <v>5217</v>
       </c>
       <c r="L5" s="3">
-        <f>+L3-L4</f>
+        <f t="shared" si="1"/>
         <v>4547</v>
       </c>
       <c r="M5" s="3">
-        <f>+M3-M4</f>
+        <f t="shared" si="1"/>
         <v>1997</v>
       </c>
       <c r="N5" s="3">
@@ -1036,19 +1054,19 @@
         <v>3990</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" ref="O5:R5" si="1">+O3*O19</f>
+        <f t="shared" ref="O5:R5" si="2">+O3*O19</f>
         <v>4189.5</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4398.9749999999995</v>
       </c>
       <c r="Q5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4618.9237499999999</v>
       </c>
       <c r="R5" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4849.8699374999997</v>
       </c>
     </row>
@@ -1094,19 +1112,19 @@
         <v>3990</v>
       </c>
       <c r="O6" s="2">
-        <f t="shared" ref="O6:R6" si="2">+O3*30%</f>
+        <f t="shared" ref="O6:R6" si="3">+O3*30%</f>
         <v>4189.5</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4398.9749999999995</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4618.9237499999999</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4849.8699374999997</v>
       </c>
     </row>
@@ -1152,19 +1170,19 @@
         <v>1422.6666666666667</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7:R7" si="3">+AVERAGE(L7:N7)</f>
+        <f t="shared" ref="O7:R7" si="4">+AVERAGE(L7:N7)</f>
         <v>1378.2222222222224</v>
       </c>
       <c r="P7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1394.6296296296298</v>
       </c>
       <c r="Q7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1398.5061728395065</v>
       </c>
       <c r="R7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1390.4526748971196</v>
       </c>
     </row>
@@ -1210,19 +1228,19 @@
         <v>2304.3333333333335</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" ref="O8:R8" si="4">+AVERAGE(L8:N8)</f>
+        <f t="shared" ref="O8:R8" si="5">+AVERAGE(L8:N8)</f>
         <v>2956.4444444444448</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3627.5925925925931</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2962.7901234567908</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3182.2757201646095</v>
       </c>
     </row>
@@ -1231,67 +1249,67 @@
         <v>28</v>
       </c>
       <c r="C9" s="2">
-        <f>+C8+C7+C6</f>
+        <f t="shared" ref="C9:M9" si="6">+C8+C7+C6</f>
         <v>4903</v>
       </c>
       <c r="D9" s="2">
-        <f>+D8+D7+D6</f>
+        <f t="shared" si="6"/>
         <v>6287</v>
       </c>
       <c r="E9" s="2">
-        <f>+E8+E7+E6</f>
+        <f t="shared" si="6"/>
         <v>6710</v>
       </c>
       <c r="F9" s="2">
-        <f>+F8+F7+F6</f>
+        <f t="shared" si="6"/>
         <v>6632</v>
       </c>
       <c r="G9" s="2">
-        <f>+G8+G7+G6</f>
+        <f t="shared" si="6"/>
         <v>5476</v>
       </c>
       <c r="H9" s="2">
-        <f>+H8+H7+H6</f>
+        <f t="shared" si="6"/>
         <v>5654</v>
       </c>
       <c r="I9" s="2">
-        <f>+I8+I7+I6</f>
+        <f t="shared" si="6"/>
         <v>6026</v>
       </c>
       <c r="J9" s="2">
-        <f>+J8+J7+J6</f>
+        <f t="shared" si="6"/>
         <v>4462</v>
       </c>
       <c r="K9" s="2">
-        <f>+K8+K7+K6</f>
+        <f t="shared" si="6"/>
         <v>6286</v>
       </c>
       <c r="L9" s="2">
-        <f>+L8+L7+L6</f>
+        <f t="shared" si="6"/>
         <v>6511</v>
       </c>
       <c r="M9" s="2">
-        <f>+M8+M7+M6</f>
+        <f t="shared" si="6"/>
         <v>11054</v>
       </c>
       <c r="N9" s="2">
-        <f t="shared" ref="N9:R9" si="5">+N8+N7+N6</f>
+        <f t="shared" ref="N9:R9" si="7">+N8+N7+N6</f>
         <v>7717</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8524.1666666666679</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9421.1972222222212</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8980.2200462962974</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9422.598332561729</v>
       </c>
     </row>
@@ -1300,67 +1318,67 @@
         <v>29</v>
       </c>
       <c r="C10" s="3">
-        <f>+C5-C9</f>
+        <f t="shared" ref="C10:M10" si="8">+C5-C9</f>
         <v>4341</v>
       </c>
       <c r="D10" s="3">
-        <f>+D5-D9</f>
+        <f t="shared" si="8"/>
         <v>-700</v>
       </c>
       <c r="E10" s="3">
-        <f>+E5-E9</f>
+        <f t="shared" si="8"/>
         <v>-175</v>
       </c>
       <c r="F10" s="3">
-        <f>+F5-F9</f>
+        <f t="shared" si="8"/>
         <v>-1132</v>
       </c>
       <c r="G10" s="3">
-        <f>+G5-G9</f>
+        <f t="shared" si="8"/>
         <v>-1468</v>
       </c>
       <c r="H10" s="3">
-        <f>+H5-H9</f>
+        <f t="shared" si="8"/>
         <v>-1016</v>
       </c>
       <c r="I10" s="3">
-        <f>+I5-I9</f>
+        <f t="shared" si="8"/>
         <v>-8</v>
       </c>
       <c r="J10" s="3">
-        <f>+J5-J9</f>
+        <f t="shared" si="8"/>
         <v>2585</v>
       </c>
       <c r="K10" s="3">
-        <f>+K5-K9</f>
+        <f t="shared" si="8"/>
         <v>-1069</v>
       </c>
       <c r="L10" s="3">
-        <f>+L5-L9</f>
+        <f t="shared" si="8"/>
         <v>-1964</v>
       </c>
       <c r="M10" s="3">
-        <f>+M5-M9</f>
+        <f t="shared" si="8"/>
         <v>-9057</v>
       </c>
       <c r="N10" s="3">
-        <f t="shared" ref="N10:R10" si="6">+N5-N9</f>
+        <f t="shared" ref="N10:R10" si="9">+N5-N9</f>
         <v>-3727</v>
       </c>
       <c r="O10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-4334.6666666666679</v>
       </c>
       <c r="P10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-5022.2222222222217</v>
       </c>
       <c r="Q10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-4361.2962962962974</v>
       </c>
       <c r="R10" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>-4572.7283950617293</v>
       </c>
     </row>
@@ -1413,23 +1431,23 @@
         <v>-29</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" ref="N11:R11" si="7">130-159</f>
+        <f t="shared" ref="N11:R11" si="10">130-159</f>
         <v>-29</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-29</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-29</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-29</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>-29</v>
       </c>
     </row>
@@ -1438,67 +1456,67 @@
         <v>31</v>
       </c>
       <c r="C12" s="2">
-        <f>+C10+C11</f>
+        <f t="shared" ref="C12:M12" si="11">+C10+C11</f>
         <v>9661</v>
       </c>
       <c r="D12" s="2">
-        <f>+D10+D11</f>
+        <f t="shared" si="11"/>
         <v>-909</v>
       </c>
       <c r="E12" s="2">
-        <f>+E10+E11</f>
+        <f t="shared" si="11"/>
         <v>-188</v>
       </c>
       <c r="F12" s="2">
-        <f>+F10+F11</f>
+        <f t="shared" si="11"/>
         <v>-796</v>
       </c>
       <c r="G12" s="2">
-        <f>+G10+G11</f>
+        <f t="shared" si="11"/>
         <v>-1158</v>
       </c>
       <c r="H12" s="2">
-        <f>+H10+H11</f>
+        <f t="shared" si="11"/>
         <v>-816</v>
       </c>
       <c r="I12" s="2">
-        <f>+I10+I11</f>
+        <f t="shared" si="11"/>
         <v>-52</v>
       </c>
       <c r="J12" s="2">
-        <f>+J10+J11</f>
+        <f t="shared" si="11"/>
         <v>2788</v>
       </c>
       <c r="K12" s="2">
-        <f>+K10+K11</f>
+        <f t="shared" si="11"/>
         <v>-719</v>
       </c>
       <c r="L12" s="2">
-        <f>+L10+L11</f>
+        <f t="shared" si="11"/>
         <v>-2004</v>
       </c>
       <c r="M12" s="2">
-        <f>+M10+M11</f>
+        <f t="shared" si="11"/>
         <v>-9086</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" ref="N12:R12" si="8">+N10+N11</f>
+        <f t="shared" ref="N12:R12" si="12">+N10+N11</f>
         <v>-3756</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-4363.6666666666679</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-5051.2222222222217</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-4390.2962962962974</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>-4601.7283950617293</v>
       </c>
     </row>
@@ -1560,67 +1578,67 @@
         <v>33</v>
       </c>
       <c r="C14" s="3">
-        <f>+C12-C13</f>
+        <f t="shared" ref="C14:M14" si="13">+C12-C13</f>
         <v>8113</v>
       </c>
       <c r="D14" s="3">
-        <f>+D12-D13</f>
+        <f t="shared" si="13"/>
         <v>-454</v>
       </c>
       <c r="E14" s="3">
-        <f>+E12-E13</f>
+        <f t="shared" si="13"/>
         <v>1019</v>
       </c>
       <c r="F14" s="3">
-        <f>+F12-F13</f>
+        <f t="shared" si="13"/>
         <v>-661</v>
       </c>
       <c r="G14" s="3">
-        <f>+G12-G13</f>
+        <f t="shared" si="13"/>
         <v>-2768</v>
       </c>
       <c r="H14" s="3">
-        <f>+H12-H13</f>
+        <f t="shared" si="13"/>
         <v>1473</v>
       </c>
       <c r="I14" s="3">
-        <f>+I12-I13</f>
+        <f t="shared" si="13"/>
         <v>310</v>
       </c>
       <c r="J14" s="3">
-        <f>+J12-J13</f>
+        <f t="shared" si="13"/>
         <v>2660</v>
       </c>
       <c r="K14" s="3">
-        <f>+K12-K13</f>
+        <f t="shared" si="13"/>
         <v>-282</v>
       </c>
       <c r="L14" s="3">
-        <f>+L12-L13</f>
+        <f t="shared" si="13"/>
         <v>-1654</v>
       </c>
       <c r="M14" s="3">
-        <f>+M12-M13</f>
+        <f t="shared" si="13"/>
         <v>-16989</v>
       </c>
       <c r="N14" s="3">
-        <f t="shared" ref="N14:R14" si="9">+N12-N13</f>
+        <f t="shared" ref="N14:R14" si="14">+N12-N13</f>
         <v>-11659</v>
       </c>
       <c r="O14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-12266.666666666668</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-12954.222222222223</v>
       </c>
       <c r="Q14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-12293.296296296297</v>
       </c>
       <c r="R14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>-12504.728395061729</v>
       </c>
     </row>
@@ -1629,67 +1647,67 @@
         <v>34</v>
       </c>
       <c r="C15" s="6">
-        <f>+C14/C16</f>
+        <f t="shared" ref="C15:M15" si="15">+C14/C16</f>
         <v>1.9754078402727051</v>
       </c>
       <c r="D15" s="6">
-        <f>+D14/D16</f>
+        <f t="shared" si="15"/>
         <v>-0.11073170731707317</v>
       </c>
       <c r="E15" s="6">
-        <f>+E14/E16</f>
+        <f t="shared" si="15"/>
         <v>0.24703030303030302</v>
       </c>
       <c r="F15" s="6">
-        <f>+F14/F16</f>
+        <f t="shared" si="15"/>
         <v>-0.15993225260101621</v>
       </c>
       <c r="G15" s="6">
-        <f>+G14/G16</f>
+        <f t="shared" si="15"/>
         <v>-0.66634569090033702</v>
       </c>
       <c r="H15" s="6">
-        <f>+H14/H16</f>
+        <f t="shared" si="15"/>
         <v>0.35104861773117252</v>
       </c>
       <c r="I15" s="6">
-        <f>+I14/I16</f>
+        <f t="shared" si="15"/>
         <v>7.2227399813606707E-2</v>
       </c>
       <c r="J15" s="6">
-        <f>+J14/J16</f>
+        <f t="shared" si="15"/>
         <v>0.62441314553990612</v>
       </c>
       <c r="K15" s="6">
-        <f>+K14/K16</f>
+        <f t="shared" si="15"/>
         <v>-6.6478076379066484E-2</v>
       </c>
       <c r="L15" s="6">
-        <f>+L14/L16</f>
+        <f t="shared" si="15"/>
         <v>-0.38762596672134991</v>
       </c>
       <c r="M15" s="6">
-        <f>+M14/M16</f>
+        <f t="shared" si="15"/>
         <v>-3.9582945013979498</v>
       </c>
       <c r="N15" s="6">
-        <f t="shared" ref="N15:R15" si="10">+N14/N16</f>
+        <f t="shared" ref="N15:R15" si="16">+N14/N16</f>
         <v>-2.7164492078285183</v>
       </c>
       <c r="O15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-2.858030444237341</v>
       </c>
       <c r="P15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-3.0182251216733977</v>
       </c>
       <c r="Q15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-2.8642349245797525</v>
       </c>
       <c r="R15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-2.9134968301634969</v>
       </c>
     </row>
@@ -1753,19 +1771,19 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8">
-        <f t="shared" ref="G18:J18" si="11">+G3/C3-1</f>
+        <f t="shared" ref="G18:J18" si="17">+G3/C3-1</f>
         <v>-0.36168473818994173</v>
       </c>
       <c r="H18" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-0.15482018145029697</v>
       </c>
       <c r="I18" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>-7.6933107315164895E-2</v>
       </c>
       <c r="J18" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>9.7137159948725182E-2</v>
       </c>
       <c r="K18" s="8">
@@ -1781,7 +1799,8 @@
         <v>-6.1731883034326862E-2</v>
       </c>
       <c r="N18" s="8">
-        <v>-0.06</v>
+        <f>+N3/M3-1</f>
+        <v>1.2044564890092424E-3</v>
       </c>
       <c r="O18" s="8">
         <v>0.05</v>
@@ -1801,43 +1820,43 @@
         <v>24</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" ref="C19:M19" si="12">+C5/C3</f>
+        <f t="shared" ref="C19:L19" si="18">+C5/C3</f>
         <v>0.50367787282733067</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.36466288101298872</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.42606597991915501</v>
       </c>
       <c r="F19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.39168209656744052</v>
       </c>
       <c r="G19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.34212548015364919</v>
       </c>
       <c r="H19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.35817437639972199</v>
       </c>
       <c r="I19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.42506003672835146</v>
       </c>
       <c r="J19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.45741918732961184</v>
       </c>
       <c r="K19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.41001257466205598</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>0.35432089145172602</v>
       </c>
       <c r="M19" s="8">
@@ -1869,31 +1888,31 @@
         <v>0.16023186005589485</v>
       </c>
       <c r="D20" s="8">
-        <f t="shared" ref="D20:M20" si="13">+D13/D12</f>
+        <f t="shared" ref="D20:M20" si="19">+D13/D12</f>
         <v>0.50055005500550054</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.16959798994974876</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>4.5911047345767578E-2</v>
       </c>
       <c r="K20" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.60778859527120999</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>0.17465069860279442</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>-0.86979969183359018</v>
       </c>
     </row>
@@ -1906,43 +1925,43 @@
         <v>0.23767231515283604</v>
       </c>
       <c r="D21" s="8">
-        <f t="shared" ref="D21:M21" si="14">+D6/D3</f>
+        <f t="shared" ref="D21:M21" si="20">+D6/D3</f>
         <v>0.28718752039684092</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.2804798539574912</v>
       </c>
       <c r="F21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.31790343255946446</v>
       </c>
       <c r="G21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.35074690567648314</v>
       </c>
       <c r="H21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.31508224573326127</v>
       </c>
       <c r="I21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.27334369261195085</v>
       </c>
       <c r="J21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.25879527456835</v>
       </c>
       <c r="K21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.34438855705752908</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.33032026805891063</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>0.30480277024992475</v>
       </c>
     </row>

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD0F555-03B2-451A-A52E-EDE10DC70178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DD9324-FC11-4705-BAEE-DE104176D337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="1185" windowWidth="18690" windowHeight="14445" activeTab="1" xr2:uid="{B6D03F4E-F23F-4259-AC13-23185DAFFCB2}"/>
+    <workbookView xWindow="4095" yWindow="915" windowWidth="23355" windowHeight="14445" xr2:uid="{B6D03F4E-F23F-4259-AC13-23185DAFFCB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -718,10 +718,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846AD38C-5960-4334-88E2-2838F09F8416}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -803,6 +803,15 @@
       <c r="J12" s="6">
         <f>+Main!M15/Main!J5</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>-3.96</v>
+      </c>
+      <c r="J14">
+        <f>+J5/I14</f>
+        <v>-5.5909090909090908</v>
       </c>
     </row>
   </sheetData>
@@ -812,13 +821,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B9D7E-ECD9-4E93-B03C-D2DBC78E6BE0}">
-  <dimension ref="A1:R65"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N19" sqref="N19"/>
+      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -827,7 +836,7 @@
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -841,7 +850,7 @@
         <v>45563</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
@@ -891,7 +900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -948,7 +957,7 @@
         <v>16166.233125000001</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -1001,7 +1010,7 @@
         <v>11287</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1070,7 +1079,7 @@
         <v>4849.8699374999997</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -1128,7 +1137,7 @@
         <v>4849.8699374999997</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>1390.4526748971196</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>3182.2757201646095</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>28</v>
       </c>
@@ -1313,7 +1322,7 @@
         <v>9422.598332561729</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
@@ -1382,7 +1391,7 @@
         <v>-4572.7283950617293</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>30</v>
       </c>
@@ -1451,7 +1460,7 @@
         <v>-29</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>31</v>
       </c>
@@ -1520,7 +1529,7 @@
         <v>-4601.7283950617293</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>32</v>
       </c>
@@ -1573,7 +1582,7 @@
         <v>7903</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>33</v>
       </c>
@@ -1641,8 +1650,12 @@
         <f t="shared" si="14"/>
         <v>-12504.728395061729</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <f>+SUM(K14:N14)</f>
+        <v>-30584</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>34</v>
       </c>
@@ -1711,7 +1724,7 @@
         <v>-2.9134968301634969</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>1</v>
       </c>

--- a/INTC.xlsx
+++ b/INTC.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DD9324-FC11-4705-BAEE-DE104176D337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C941A9DB-CA45-47FA-A376-C9E7A736F7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="915" windowWidth="23355" windowHeight="14445" xr2:uid="{B6D03F4E-F23F-4259-AC13-23185DAFFCB2}"/>
+    <workbookView xWindow="13680" yWindow="2385" windowWidth="18630" windowHeight="11940" activeTab="2" xr2:uid="{B6D03F4E-F23F-4259-AC13-23185DAFFCB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
+    <sheet name="Products" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -74,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>Price</t>
   </si>
@@ -251,13 +252,61 @@
   </si>
   <si>
     <t>Net</t>
+  </si>
+  <si>
+    <t>12/1/24 Intel appointed new CEO Michelle Johnston Holthaus</t>
+  </si>
+  <si>
+    <t>Xeon-6</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Data Center</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Edge deployments</t>
+  </si>
+  <si>
+    <t>SoC</t>
+  </si>
+  <si>
+    <t>Xeon-6780E</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>2.2GHz</t>
+  </si>
+  <si>
+    <t>Frequency(Base)</t>
+  </si>
+  <si>
+    <t>Cache</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>SST PPO</t>
+  </si>
+  <si>
+    <t>SST PP1</t>
+  </si>
+  <si>
+    <t>2.3GHz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -294,6 +343,15 @@
       <family val="2"/>
       <charset val="186"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="186"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -316,7 +374,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -328,6 +386,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -720,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{846AD38C-5960-4334-88E2-2838F09F8416}">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -730,6 +789,9 @@
       <c r="A1" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
       <c r="I5" t="s">
         <v>0</v>
       </c>
@@ -823,11 +885,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B77B9D7E-ECD9-4E93-B03C-D2DBC78E6BE0}">
   <dimension ref="A1:U65"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M15" sqref="M15"/>
+      <selection pane="bottomRight" activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2022,7 +2084,10 @@
       <c r="B29" t="s">
         <v>57</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" s="2">
+        <f>+M25+M28</f>
+        <v>-12987</v>
+      </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
@@ -2205,4 +2270,97 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6CF9164-4AC4-46F6-9EDE-08BA462DC545}">
+  <dimension ref="B3:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9">
+        <v>144</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10">
+        <v>144</v>
+      </c>
+      <c r="E10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>